--- a/SZMK.Desktop/bin/Debug/Program/Templates/ReportPastTimeofDateTemplate.xlsx
+++ b/SZMK.Desktop/bin/Debug/Program/Templates/ReportPastTimeofDateTemplate.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DE49B-6D83-453C-850E-84B60E069898}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>КБ</t>
   </si>
@@ -53,12 +52,15 @@
   </si>
   <si>
     <t>6)Среднее чистое время перемещения одного чертежа, ч</t>
+  </si>
+  <si>
+    <t>Цех заготовки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,11 +398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +431,11 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -443,7 +447,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -455,7 +459,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -467,7 +471,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -479,7 +483,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -491,7 +495,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -503,7 +507,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="4"/>
     </row>
   </sheetData>
